--- a/DOM_Banner/output/dept0713/C Kent Kwoh_2023.xlsx
+++ b/DOM_Banner/output/dept0713/C Kent Kwoh_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Paracelsus Medical University, Salzburg and Nuremberg, Austria, and Chondrometrics, Freilassing, Germany; Paracelsus Medical University, Salzburg and Nuremberg, Austria, and Chondrometrics, Freilassing, Germany; Paracelsus Medical University, Salzburg and Nuremberg, Austria, and Chondrometrics, Freilassing, Germany; Boston University School of Medicine, Boston, Massachusetts, and VA Boston Healthcare System, West Roxbury, Massachusetts; Royal North Shore Hospital and University of Sydney, St. Leonards, New South Wales, Australia; University of Arizona College of Medicine, Tucson; University of California, San Francisco; Paracelsus Medical University, Salzburg and Nuremberg, Austria, and Chondrometrics, Freilassing, Germany; Boston University School of Medicine, Boston, Massachusetts, and Universitätsklinikum Erlangen and Friedrich‐Alexander University Erlangen–Nuremberg  Erlangen Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313236401</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Selection of Knees With Subsequent Cartilage Thickness Loss Based on Magnetic Resonance Imaging Semiquantitative Grading: Data From the Osteoarthritis Initiative Foundation for the National Institutes of Health Biomarker Cohort</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.25078</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36576026</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.25078</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>The Russell H. Morgan Department of Radiology and Radiological Science, Johns Hopkins University School of Medicine, Baltimore, MD, United States; The Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, United States; National Institute of Aging, NIH, Baltimore, MD, United States; Division of Rheumatology, The University of Arizona, Tucson, AZ, United States; Department of Radiology, Boston University School of Medicine, Boston, MA, United States; The Russell H. Morgan Department of Radiology and Radiological Science, Johns Hopkins University School of Medicine, Baltimore, MD, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4364374369</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Higher thyroid hormone has a negative association with lower limb lean body mass in euthyroid older adults: Analysis from the Baltimore Longitudinal study of aging</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in aging</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fragi.2023.1150645</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37114095</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fragi.2023.1150645</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernández-Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A Singh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387002693</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic &lt;scp&gt;Moderate‐to‐Severe&lt;/scp&gt; Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42630</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37746897</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/art.42630</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Debashis Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernández-Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Debashis Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Drs. Hannon, Goodman, Austin, and Yates contributed equally to this work.; Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387002375</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic &lt;scp&gt;Moderate‐to‐Severe&lt;/scp&gt; Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.25175</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37743767</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/acr.25175</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, University of New Mexico Health Sciences, Albuquerque, NM 87131, USA; Departments of Medical Imaging and Orthopaedic Surgery, University of Arizona, Tucson, AZ 85719, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Tualatin Imaging P.C., Tualatin, OR 97062, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, Boston, MA 02118, USA; VA Boston Healthcare System, West Roxbury, Boston, MA 02132, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362557700</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Reliability and Validity of Single Axial Slice vs. Multiple Slice Quantitative Measurement of the Volume of Effusion-Synovitis on 3T Knee MRI in Knees with Osteoarthritis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Clinical Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jcm12072691</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37048775</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jcm12072691</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Department of Radiology, University of Erlangen – Nuremberg, Erlangen, Germany; Department of Management Information Systems, University of Arizona, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Feinberh School of Medicine, Northwestern University, IL, USA; Kent Memorial Hospital, and Department of Family Medicine, Warren Alpert Medical School, and Department of Epidemiology, School of Public Health, Brown University, RI, USA; School of Medicine, University of Maryland, and Medical Care Clinical Center, VA Maryland Health Care System, Baltimore, MD, USA; Sydney Musculoskeletal Health, Kolling Institute, Faculty of Medicine and Health, The University of Sydney, Sydney, 2065 NSW, Australia, and Rheumatology Department, Royal North Shore Hospital, St Leonards, NSW 2065 Australia; Department of Epidemiology and Biostatistics, University of California San Francisco, CA, USA; Department of Imaging &amp; Functional Musculoskeletal Research, Institute of Anatomy &amp; Cell Biology, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Ludwig Boltzmann Inst. for Arthritis and Rehabilitation, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Chondrometrics GmbH, Ainring, Germany; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377139285</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Comparison of evaluation metrics of deep learning for imbalanced imaging data in osteoarthritis studies</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37209993</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">University of Arizona, University of Arizona Arthritis Center, Tucson, United States of America; University of Erlangen, Department of Radiology, Erlangen, Germany; Boston University School of Medicine, Quantitative Imaging Center, Department of Radiology, Boston, United States of America; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379511884</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>POS0108 WOMAC KNEE PAIN: DOES IT WALK THE WALK?</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Diakonhjemmet Hospital, Oslo, Norway; University of Arizona Arthritis Center, the University of Arizona College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381431598</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>DEEP LEARNING APPROACH TO MEASURE CARTILAGE VOLUME: DATA FROM THE OSTEOARTHRITIS INITIATIVE</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Osteoarthritis Imaging</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; VA Boston Healthcare, Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany &amp; Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381434219</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>PATIENTS WITH A NEUROPATHIC-LIKE PAIN PHENOTYPE EXHIBIT MARKEDLY LESS MRI-DETECTED STRUCTURAL JOINT TISSUE DAMAGE COMPARED TO WITHOUT A NEUROPATHIC-LIKE PAIN PHENOTYPE: DATA FROM THE IMI-APPROACH STUDY</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Osteoarthritis Imaging</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C. Kent Kwoh, Frank W. Roemer, Erin L. Ashbeck, Ali Guermazi</t>
+          <t>Grace H. Lo, Michael J. Richard, Timothy E. McAlindon, Andrea M. Kriska, Lori Lyn Price, Bonny Rockette‐Wagner, Charles B. Eaton, Marc C. Hochberg, C. Kent Kwoh, Michael C. Nevitt, Jeffrey B. Driban</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381434733</t>
+          <t>Department of Medicine, Baylor College of Medicine, Houston, TX; Medical Care Line and Research Care Line, Houston VA HSR&amp;amp;D Center for Innovations in Quality, Effectiveness and Safety, Michael E. DeBakey Medical Center Houston TX USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Department of Epidemiology, University of Pittsburgh, Pittsburgh, PA, USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Department of Epidemiology, University of Pittsburgh, Pittsburgh, PA, USA; Department of Family Medicine, Warren Alpert Medical School of Brown University, Providence, RI and Department of Epidemiology, School of Public Health of Brown University, Providence, RI; Department of Medicine and Epidemiology and Public Health, University of Maryland School of Medicine, Baltimore, MD; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ; Department of Epidemiology and Biostatistics, University of California San Francisco, San Francisco, CA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EXTENT OF SUBREGIONAL INVOLVEMENT OF SUBCHONDRAL BML IN INCIDENT KNEE OA IS ASSOCIATED WITH WEIGHT-BEARING KNEE PAIN</t>
+          <t>https://openalex.org/W4387866404</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Strength Training Associates with Less Knee Osteoarthritis: Data from the Osteoarthritis Initiative</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Osteoarthritis Imaging</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100124</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1002/art.42732</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100124</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37870119</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/art.42732</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
+          <t>C. Kent Kwoh, Frank W. Roemer, Erin L. Ashbeck, Ali Guermazi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385406895</t>
+          <t>University of Arizona Arthritis Center, Tucson, AZ, USA; Chobanian &amp; Avedisian School of Medicine, Boston University, Boston, MA, USA; Universitätsklinikum Erlangen &amp; Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany; University of Arizona Arthritis Center, Tucson, AZ, USA; Chobanian &amp; Avedisian School of Medicine, Boston University, Boston, MA, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
+          <t>https://openalex.org/W4381434733</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>EXTENT OF SUBREGIONAL INVOLVEMENT OF SUBCHONDRAL BML IN INCIDENT KNEE OA IS ASSOCIATED WITH WEIGHT-BEARING KNEE PAIN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arthritis Care &amp; Research</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Osteoarthritis Imaging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.ostima.2023.100124</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ostima.2023.100124</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernández-Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387162918</t>
+          <t>Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; School of Social Work, College of Public Health, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic Moderate-to-Severe Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
+          <t>https://openalex.org/W4385406895</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Journal of Arthroplasty</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1002/acr.25209</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37778918</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/acr.25209</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grace H. Lo, Michael J. Richard, Timothy E. McAlindon, Andrea M. Kriska, Lori Lyn Price, Bonny Rockette‐Wagner, Charles B. Eaton, Marc C. Hochberg, C. Kent Kwoh, Michael C. Nevitt, Jeffrey B. Driban</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387866404</t>
+          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania; McMaster University, Hamilton, Ontario, Canada; NYU Langone Health, New York, New York; University of Pennsylvania, Philadelphia; Cypress, Texas; Mayo Clinic, Rochester, Minnesota; Sterling, Virginia; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; OrthoVirginia, Richmond, Virginia; University of Arizona College of Medicine, Tucson; NYU Langone Health, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Colorado Anschutz Medical Campus, Aurora; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; Sinai Health, University of Toronto, Toronto, Ontario, Canada; Washington University School of Medicine, St. Louis, Missouri; Mayo Clinic, Rochester, Minnesota; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; LSU Health, New Orleans, Louisiana; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Toronto, Toronto, Ontario, Canada; The Ohio State Wexner Medical Center, Columbus, Ohio; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; McMaster University, Hamilton, Ontario, Canada; Maine Medical Partners, Portland; ECRI Institute, Plymouth Meeting, Pennsylvania; American College of Rheumatology, Atlanta, Georgia; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; American College of Rheumatology, Atlanta, Georgia; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Strength Training Associates with Less Knee Osteoarthritis: Data from the Osteoarthritis Initiative</t>
+          <t>https://openalex.org/W4387162918</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic Moderate-to-Severe Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arthritis &amp; Rheumatology</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>The Journal of Arthroplasty</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42732</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37870119</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42732</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37778918</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernández-Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389286016</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Erratum to “2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic Moderate-to-Severe Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective” [The Journal of Arthroplasty 38 (2023) 2193-2201]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>The Journal of Arthroplasty</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.arth.2023.11.019</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38049357</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.arth.2023.11.019</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>erratum</t>
         </is>

--- a/DOM_Banner/output/dept0713/C Kent Kwoh_2023.xlsx
+++ b/DOM_Banner/output/dept0713/C Kent Kwoh_2023.xlsx
@@ -621,17 +621,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Debashis Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis F. Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
+          <t>Drs. Hannon, Goodman, Austin, and Yates contributed equally to this work.; Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387002693</t>
+          <t>https://openalex.org/W4387002375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Arthritis &amp; Rheumatology</t>
+          <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42630</t>
+          <t>https://doi.org/10.1002/acr.25175</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37746897</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37743767</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42630</t>
+          <t>https://doi.org/10.1002/acr.25175</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,17 +708,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Debashis Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis F. Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A Singh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drs. Hannon, Goodman, Austin, and Yates contributed equally to this work.; Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
+          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania.; McMaster University, Hamilton, Ontario, Canada.; NYU Langone Health, New York, New York.; University of Pennsylvania  Philadelphia; Cypress, Texas.; Mayo Clinic, Rochester, Minnesota.; Sterling, Virginia.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; OrthoVirginia, Richmond, Virginia.; University of Arizona College of Medicine, Tucson.; NYU Langone Health, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Colorado Anschutz Medical Campus, Aurora.; Feinberg School of Medicine of Northwestern University, Chicago, Illinois.; Sinai Health, University of Toronto, Toronto, Ontario, Canada.; Washington University School of Medicine, St. Louis, Missouri.; Mayo Clinic, Rochester, Minnesota.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; LSU Health, New Orleans, Louisiana.; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; University of Toronto, Toronto, Ontario, Canada.; The Ohio State Wexner Medical Center, Columbus, Ohio.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; McMaster University, Hamilton, Ontario, Canada.; Maine Medical Partners, Portland.; ECRI Institute, Plymouth Meeting, Pennsylvania.; American College of Rheumatology, Atlanta, Georgia.; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada.; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York.; American College of Rheumatology, Atlanta, Georgia.; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387002375</t>
+          <t>https://openalex.org/W4387002693</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arthritis Care &amp; Research</t>
+          <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25175</t>
+          <t>https://doi.org/10.1002/art.42630</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37743767</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37746897</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25175</t>
+          <t>https://doi.org/10.1002/art.42630</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,47 +795,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greg Gilles, Arjun Vohra, Dagoberto Robles, Mihra S. Taljanovic, Erin L. Ashbeck, Chelsea Caruso, J. Duryea, Edward J. Bedrick, Ali Guermazi, C. Kent Kwoh</t>
+          <t>Shen Liu, Frank W. Roemer, Geng Sun, Edward J. Bedrick, Zong Ming Li, Ali Guermazi, Leena Sharma, Charles B. Eaton, Marc C. Hochberg, David J. Hunter, Michael C. Nevitt, W. Wirth, C. Kent Kwoh, Xiaoxiao Sun</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, University of New Mexico Health Sciences, Albuquerque, NM 87131, USA; Departments of Medical Imaging and Orthopaedic Surgery, University of Arizona, Tucson, AZ 85719, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Tualatin Imaging P.C., Tualatin, OR 97062, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, Boston, MA 02118, USA; VA Boston Healthcare System, West Roxbury, Boston, MA 02132, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA</t>
+          <t>Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Department of Radiology, University of Erlangen – Nuremberg, Erlangen, Germany; Department of Management Information Systems, University of Arizona, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Feinberh School of Medicine, Northwestern University, IL, USA; Kent Memorial Hospital, and Department of Family Medicine, Warren Alpert Medical School, and Department of Epidemiology, School of Public Health, Brown University, RI, USA; School of Medicine, University of Maryland, and Medical Care Clinical Center, VA Maryland Health Care System, Baltimore, MD, USA; Sydney Musculoskeletal Health, Kolling Institute, Faculty of Medicine and Health, The University of Sydney, Sydney, 2065 NSW, Australia, and Rheumatology Department, Royal North Shore Hospital, St Leonards, NSW 2065 Australia; Department of Epidemiology and Biostatistics, University of California San Francisco, CA, USA; Department of Imaging &amp; Functional Musculoskeletal Research, Institute of Anatomy &amp; Cell Biology, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Ludwig Boltzmann Inst. for Arthritis and Rehabilitation, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Chondrometrics GmbH, Ainring, Germany; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362557700</t>
+          <t>https://openalex.org/W4377139285</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reliability and Validity of Single Axial Slice vs. Multiple Slice Quantitative Measurement of the Volume of Effusion-Synovitis on 3T Knee MRI in Knees with Osteoarthritis</t>
+          <t>Comparison of evaluation metrics of deep learning for imbalanced imaging data in osteoarthritis studies</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Journal of Clinical Medicine</t>
+          <t>Osteoarthritis and Cartilage</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jcm12072691</t>
+          <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37048775</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37209993</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jcm12072691</t>
+          <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,32 +882,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shen Liu, Frank W. Roemer, Geng Sun, Edward J. Bedrick, Zong Ming Li, Ali Guermazi, Leena Sharma, Charles B. Eaton, Marc C. Hochberg, David J. Hunter, Michael C. Nevitt, W. Wirth, C. Kent Kwoh, Xiaoxiao Sun</t>
+          <t>J. Duryea, F. Preiswerk, H. Ragati Haghi, R. Amesbury, T. Laffaye, R. Stein, A. Mathiessen, C. Kent Kwoh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Department of Radiology, University of Erlangen – Nuremberg, Erlangen, Germany; Department of Management Information Systems, University of Arizona, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Radiology, Boston University School of Medicine, MA, USA; Feinberh School of Medicine, Northwestern University, IL, USA; Kent Memorial Hospital, and Department of Family Medicine, Warren Alpert Medical School, and Department of Epidemiology, School of Public Health, Brown University, RI, USA; School of Medicine, University of Maryland, and Medical Care Clinical Center, VA Maryland Health Care System, Baltimore, MD, USA; Sydney Musculoskeletal Health, Kolling Institute, Faculty of Medicine and Health, The University of Sydney, Sydney, 2065 NSW, Australia, and Rheumatology Department, Royal North Shore Hospital, St Leonards, NSW 2065 Australia; Department of Epidemiology and Biostatistics, University of California San Francisco, CA, USA; Department of Imaging &amp; Functional Musculoskeletal Research, Institute of Anatomy &amp; Cell Biology, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Ludwig Boltzmann Inst. for Arthritis and Rehabilitation, Paracelsus Medical University Salzburg &amp; Nuremberg, Salzburg, Austria, and Chondrometrics GmbH, Ainring, Germany; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Epidemiology and Biostatistics, University of Arizona, 1295 N. Martin Ave., Tucson, AZ 85724, USA</t>
+          <t>Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Diakonhjemmet Hospital, Oslo, Norway; University of Arizona Arthritis Center, the University of Arizona College of Medicine, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377139285</t>
+          <t>https://openalex.org/W4381431598</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Comparison of evaluation metrics of deep learning for imbalanced imaging data in osteoarthritis studies</t>
+          <t>DEEP LEARNING APPROACH TO MEASURE CARTILAGE VOLUME: DATA FROM THE OSTEOARTHRITIS INITIATIVE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Osteoarthritis and Cartilage</t>
+          <t>Osteoarthritis Imaging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
+          <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37209993</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.joca.2023.05.006</t>
+          <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C. Kent Kwoh, Frank W. Roemer, Ali Guermazi, Erin L. Ashbeck</t>
+          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">University of Arizona, University of Arizona Arthritis Center, Tucson, United States of America; University of Erlangen, Department of Radiology, Erlangen, Germany; Boston University School of Medicine, Quantitative Imaging Center, Department of Radiology, Boston, United States of America; </t>
+          <t>Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; School of Social Work, College of Public Health, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379511884</t>
+          <t>https://openalex.org/W4385406895</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POS0108 WOMAC KNEE PAIN: DOES IT WALK THE WALK?</t>
+          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-05-30</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Arthritis Care &amp; Research</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/acr.25209</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
+          <t>https://doi.org/10.1002/acr.25209</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,47 +1056,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J. Duryea, F. Preiswerk, H. Ragati Haghi, R. Amesbury, T. Laffaye, R. Stein, A. Mathiessen, C. Kent Kwoh</t>
+          <t>Greg Gilles, Arjun Vohra, Dagoberto Robles, Mihra S. Taljanovic, Erin L. Ashbeck, Chelsea Caruso, J. Duryea, Edward J. Bedrick, Ali Guermazi, C. Kent Kwoh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Brigham and Women's Hospital, Boston, MA, USA; Diakonhjemmet Hospital, Oslo, Norway; University of Arizona Arthritis Center, the University of Arizona College of Medicine, Tucson, AZ, USA</t>
+          <t>University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, University of New Mexico Health Sciences, Albuquerque, NM 87131, USA; Departments of Medical Imaging and Orthopaedic Surgery, University of Arizona, Tucson, AZ 85719, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Tualatin Imaging P.C., Tualatin, OR 97062, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA; Department of Radiology, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA 02115, USA; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85724, USA; Department of Radiology, Boston University School of Medicine, Boston, MA 02118, USA; VA Boston Healthcare System, West Roxbury, Boston, MA 02132, USA; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381431598</t>
+          <t>https://openalex.org/W4362557700</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DEEP LEARNING APPROACH TO MEASURE CARTILAGE VOLUME: DATA FROM THE OSTEOARTHRITIS INITIATIVE</t>
+          <t>Reliability and Validity of Single Axial Slice vs. Multiple Slice Quantitative Measurement of the Volume of Effusion-Synovitis on 3T Knee MRI in Knees with Osteoarthritis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Osteoarthritis Imaging</t>
+          <t>Journal of Clinical Medicine</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
+          <t>https://doi.org/10.3390/jcm12072691</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37048775</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100110</t>
+          <t>https://doi.org/10.3390/jcm12072691</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,47 +1143,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mohamed Jarraya, S.C. Mastbergen, Jamie E. Collins, Ali Guermazi, Niels Eijkelkamp, C. Kent Kwoh, Miriam A. Bredella, Robert R. Edwards, F.W. Roemer, M. Jansen</t>
+          <t>C. Kent Kwoh, Frank W. Roemer, Ali Guermazi, Erin L. Ashbeck</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; VA Boston Healthcare, Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany &amp; Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands</t>
+          <t xml:space="preserve">University of Arizona, University of Arizona Arthritis Center, Tucson, United States of America; University of Erlangen, Department of Radiology, Erlangen, Germany; Boston University School of Medicine, Quantitative Imaging Center, Department of Radiology, Boston, United States of America; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381434219</t>
+          <t>https://openalex.org/W4379511884</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PATIENTS WITH A NEUROPATHIC-LIKE PAIN PHENOTYPE EXHIBIT MARKEDLY LESS MRI-DETECTED STRUCTURAL JOINT TISSUE DAMAGE COMPARED TO WITHOUT A NEUROPATHIC-LIKE PAIN PHENOTYPE: DATA FROM THE IMI-APPROACH STUDY</t>
+          <t>POS0108 WOMAC KNEE PAIN: DOES IT WALK THE WALK?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Osteoarthritis Imaging</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
+          <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
+          <t>https://doi.org/10.1136/annrheumdis-2023-eular.6224</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,57 +1230,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Grace H. Lo, Michael J. Richard, Timothy E. McAlindon, Andrea M. Kriska, Lori Lyn Price, Bonny Rockette‐Wagner, Charles B. Eaton, Marc C. Hochberg, C. Kent Kwoh, Michael C. Nevitt, Jeffrey B. Driban</t>
+          <t>Mohamed Jarraya, S.C. Mastbergen, Jamie E. Collins, Ali Guermazi, Niels Eijkelkamp, C. Kent Kwoh, Miriam A. Bredella, Robert R. Edwards, F.W. Roemer, M. Jansen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Department of Medicine, Baylor College of Medicine, Houston, TX; Medical Care Line and Research Care Line, Houston VA HSR&amp;amp;D Center for Innovations in Quality, Effectiveness and Safety, Michael E. DeBakey Medical Center Houston TX USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Department of Epidemiology, University of Pittsburgh, Pittsburgh, PA, USA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA; Department of Epidemiology, University of Pittsburgh, Pittsburgh, PA, USA; Department of Family Medicine, Warren Alpert Medical School of Brown University, Providence, RI and Department of Epidemiology, School of Public Health of Brown University, Providence, RI; Department of Medicine and Epidemiology and Public Health, University of Maryland School of Medicine, Baltimore, MD; University of Arizona Arthritis Center, University of Arizona College of Medicine, Tucson, AZ; Department of Epidemiology and Biostatistics, University of California San Francisco, San Francisco, CA; Division of Rheumatology, Allergy, &amp;amp; Immunology, Tufts Medical Center Boston MA USA</t>
+          <t>Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; VA Boston Healthcare, Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands; University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Brigham &amp; Women's Hospital, Harvard Medical School, Boston, MA, USA; Friedrich-Alexander-Universität Erlangen-Nürnberg, Erlangen, Germany &amp; Boston University School of Medicine, Boston, MA, USA; University Medical Center Utrecht, Utrecht University, Utrecht, The Netherlands</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387866404</t>
+          <t>https://openalex.org/W4381434219</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Strength Training Associates with Less Knee Osteoarthritis: Data from the Osteoarthritis Initiative</t>
+          <t>PATIENTS WITH A NEUROPATHIC-LIKE PAIN PHENOTYPE EXHIBIT MARKEDLY LESS MRI-DETECTED STRUCTURAL JOINT TISSUE DAMAGE COMPARED TO WITHOUT A NEUROPATHIC-LIKE PAIN PHENOTYPE: DATA FROM THE IMI-APPROACH STUDY</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Arthritis &amp; Rheumatology</t>
+          <t>Osteoarthritis Imaging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42732</t>
+          <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37870119</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/art.42732</t>
+          <t>https://doi.org/10.1016/j.ostima.2023.100125</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis F. Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; School of Social Work, College of Public Health, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE</t>
+          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania; McMaster University, Hamilton, Ontario, Canada; NYU Langone Health, New York, New York; University of Pennsylvania, Philadelphia; Cypress, Texas; Mayo Clinic, Rochester, Minnesota; Sterling, Virginia; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; OrthoVirginia, Richmond, Virginia; University of Arizona College of Medicine, Tucson; NYU Langone Health, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Colorado Anschutz Medical Campus, Aurora; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; Sinai Health, University of Toronto, Toronto, Ontario, Canada; Washington University School of Medicine, St. Louis, Missouri; Mayo Clinic, Rochester, Minnesota; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; LSU Health, New Orleans, Louisiana; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Toronto, Toronto, Ontario, Canada; The Ohio State Wexner Medical Center, Columbus, Ohio; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; McMaster University, Hamilton, Ontario, Canada; Maine Medical Partners, Portland; ECRI Institute, Plymouth Meeting, Pennsylvania; American College of Rheumatology, Atlanta, Georgia; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; American College of Rheumatology, Atlanta, Georgia; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385406895</t>
+          <t>https://openalex.org/W4387162918</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
+          <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic Moderate-to-Severe Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Arthritis Care &amp; Research</t>
+          <t>The Journal of Arthroplasty</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37778918</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Grace H. Lo, Michael J. Richard, Timothy E. McAlindon, Andrea M. Kriska, Lori Lyn Price, Bonny Rockette‐Wagner, Charles B. Eaton, Marc C. Hochberg, C. Kent Kwoh, Michael C. Nevitt, Jeffrey B. Driban</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Washington University School of Medicine, St. Louis, Missouri; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania; McMaster University, Hamilton, Ontario, Canada; NYU Langone Health, New York, New York; University of Pennsylvania, Philadelphia; Cypress, Texas; Mayo Clinic, Rochester, Minnesota; Sterling, Virginia; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; OrthoVirginia, Richmond, Virginia; University of Arizona College of Medicine, Tucson; NYU Langone Health, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Colorado Anschutz Medical Campus, Aurora; Feinberg School of Medicine of Northwestern University, Chicago, Illinois; Sinai Health, University of Toronto, Toronto, Ontario, Canada; Washington University School of Medicine, St. Louis, Missouri; Mayo Clinic, Rochester, Minnesota; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; LSU Health, New Orleans, Louisiana; Rothman Orthopaedic Institute, Philadelphia, Pennsylvania; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; University of Toronto, Toronto, Ontario, Canada; The Ohio State Wexner Medical Center, Columbus, Ohio; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; McMaster University, Hamilton, Ontario, Canada; Maine Medical Partners, Portland; ECRI Institute, Plymouth Meeting, Pennsylvania; American College of Rheumatology, Atlanta, Georgia; VA Puget Sound Health Care System and University of Washington School of Medicine, Seattle; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; Schroeder Arthritis Institute, Toronto Western Hospital, University of Toronto, Toronto, Ontario, Canada; Hospital for Special Surgery and Weill Cornell Medicine, New York, New York; American College of Rheumatology, Atlanta, Georgia; University of Alabama at Birmingham and Veterans Affairs Medical Center, Birmingham, Alabama</t>
+          <t>Baylor College of Medicine and Houston VA HSR&amp;amp;D Center for Innovations in Quality, Effectiveness and Safety, Michael E. DeBakey Medical Center Houston Texas; Tufts Medical Center Boston Massachusetts; Tufts Medical Center Boston Massachusetts; University of Pittsburgh Pittsburgh Pennsylvania; Tufts Medical Center Boston Massachusetts; University of Pittsburgh Pittsburgh Pennsylvania; Warren Alpert Medical School and School of Public Health of Brown University Providence Rhode Island; University of Maryland School of Medicine Baltimore; Arizona Arthritis Center, University of Arizona College of Medicine Tucson; University of California San Francisco San Francisco; Tufts Medical Center Boston Massachusetts</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387162918</t>
+          <t>https://openalex.org/W4387866404</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023 American College of Rheumatology and American Association of Hip and Knee Surgeons Clinical Practice Guideline for the Optimal Timing of Elective Hip or Knee Arthroplasty for Patients With Symptomatic Moderate-to-Severe Osteoarthritis or Advanced Symptomatic Osteonecrosis With Secondary Arthritis for Whom Nonoperative Therapy Is Ineffective</t>
+          <t>Strength Training Is Associated With Less Knee Osteoarthritis: Data From the Osteoarthritis Initiative</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The Journal of Arthroplasty</t>
+          <t>Arthritis &amp; Rheumatology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+          <t>https://doi.org/10.1002/art.42732</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37778918</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37870119</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.arth.2023.09.003</t>
+          <t>https://doi.org/10.1002/art.42732</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
+          <t>Charles P. Hannon, Susan M. Goodman, Matthew S. Austin, Adolph J. Yates, Gordon Guyatt, Vinay K. Aggarwal, Joshua F. Baker, Phyllis Bass, Delamo Bekele, Danielle Dass, Hassan Ghomrawi, David S. Jevsevar, C. Kent Kwoh, Claudette M. Lajam, Charis F. Meng, Larry W. Moreland, Linda I. Suleiman, Jesse Wolfstadt, Kimberly Bartosiak, Nicholas A. Bedard, Jason L. Blevins, Anna Cohen-Rosenblum, P. Maxwell Courtney, Ruth Fernandez‐Ruiz, Elizabeth B. Gausden, Nina Ghosh, Lauren King, Alexa Meara, Bella Mehta, Reza Mirza, Adam J. Rana, Nancy Sullivan, Marat Turgunbaev, Katherine D Wysham, Kevin Yip, Linda Yue, Michael G. Zywiel, Linda Russell, Amy S Turner, Jasvinder A. Singh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
